--- a/BLEU/BreakSentence_Input/Excel/test.xlsx
+++ b/BLEU/BreakSentence_Input/Excel/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\BLEU\BreakSentence_Input\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E6E1E-3CA5-4C46-8FE3-784C83D6E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FFB1D-D18D-4F24-87A4-44A8B34AA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{59F07464-A66F-465D-A2C0-6BFC89A4F8F1}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{59F07464-A66F-465D-A2C0-6BFC89A4F8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>The main part of this book consists of a series of discourses given by Kyabje Dudjom Rinpoche.1 One of them dates from as early as 1962, but on the whole, they were delivered during the 1970s, some in the East and some in the West. The talks were recorded, and were later transcribed and published in a small volume, probably in Kathmandu. A copy of this book was given to Padmakara with a request from Dudjom Rinpoche’s consort, Sangyum Rigdzin Wangmo, for it to be translated. Thus it is thanks to her, and with her gracious permission, that these wonderful teachings are being made available to Western readers.</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH-TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,9 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625257C4-49EA-4740-B48B-CC02CC033524}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -707,6 +717,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -786,9 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57CF9F-E2FF-4394-A9BA-76CDEBCC145F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -796,6 +807,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
       <c r="B1" t="s">
         <v>93</v>
       </c>
@@ -946,9 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB4F7DC-7C90-4301-BF2F-FD9470EC7EBF}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -956,6 +968,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" t="s">
         <v>92</v>
       </c>
